--- a/CookCoCombined.xlsx
+++ b/CookCoCombined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kliang\Desktop\Smart-Cities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63B47282-549D-4BFC-B79F-12008B3633C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9EACF6-E579-4240-B869-166B429B5795}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12576" xr2:uid="{BCDC2DA5-869F-48A2-885C-09C5647E1D3B}"/>
   </bookViews>
@@ -55,13 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -94,6 +91,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,17 +118,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -451,1556 +450,1557 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA37358F-B085-434A-8DA0-CC5671202D77}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>60601</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>39837</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>69283</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="7">
         <v>36483</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>11773</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>38.1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>53846</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>291335</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>60602</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>11257</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>21344</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>10582</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>3906</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>34.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>82834</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>390663</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>60603</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>20121</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>49333</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>16940</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>11128</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>35.1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>27447</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>193626</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>60604</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>12504</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>27057</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>11517</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>6922</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>41.6</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>61492</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>289122</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>60605</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>6004</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>14354</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>5654</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>3515</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>36.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>48332</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>175132</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>60606</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>43988</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>71331</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>40641</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>10371</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>32.4</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
         <v>89069</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>436891</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>60607</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>30157</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>49068</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>27761</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>7520</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>33.1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>77317</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>335808</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>60608</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>37817</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>66866</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>34686</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>10377</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>31.7</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="5">
         <v>101853</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>607649</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>60609</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>816</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>709</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>447</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>142</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>24.4</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="5">
         <v>97932</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>567623</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>60610</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>32173</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>62565</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>26369</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>15092</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>42</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="5">
         <v>36520</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>165677</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>60611</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>13237</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>40990</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>12487</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>9694</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>34.9</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="5">
         <v>65746</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>182489</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>60612</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>16528</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>31466</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>14314</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>6982</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>37.9</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="5">
         <v>26924</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>259592</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>60613</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>11427</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>28611</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>10602</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>7082</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>38.299999999999997</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="5">
         <v>86834</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="5">
         <v>248080</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>60614</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>27236</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>33830</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>22207</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>6420</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>41</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="5">
         <v>96244</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <v>562077</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>60615</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>0</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>60616</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>26720</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>54121</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>24951</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>10245</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>32.6</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>73806</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="5">
         <v>451307</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="8">
         <v>60617</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>31388</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>101742</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>25967</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>20131</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>29</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>31005</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <v>179300</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>60618</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>17274</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>38309</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>12903</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>8496</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>32.299999999999997</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="5">
         <v>22574</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>193799</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="8">
         <v>60619</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>32786</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>80042</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>29747</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>17129</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>34.200000000000003</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="5">
         <v>58576</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>348765</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>60620</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="8">
         <v>60621</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>1074386</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>2432359</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>940252</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>518009</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>34.6</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="5">
         <v>51007</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>245338</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="8">
         <v>60622</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>5760</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>14442</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>4773</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>3179</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>30.3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>40703</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="5">
         <v>141471</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="8">
         <v>60623</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>22797</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>42245</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>20570</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>7151</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>37.1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="5">
         <v>44857</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>250000</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>60624</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>8549</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>11841</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>7556</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>2045</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>31.9</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="5">
         <v>105947</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <v>358709</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="8">
         <v>60625</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>30400</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>71244</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>25926</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>17310</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>39.5</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="3">
         <v>36331</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>151314</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="8">
         <v>60626</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>22786</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>55806</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>21080</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>13539</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>39.5</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="5">
         <v>65717</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>308222</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>60628</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>12843</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>28725</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <v>11955</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>7260</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>45.3</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="5">
         <v>81222</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>356047</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="8">
         <v>60629</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>27513</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>93354</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <v>24390</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>19501</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>29</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="5">
         <v>44259</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>201735</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>60630</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>39390</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>91077</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>36086</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>18229</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>32.6</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="5">
         <v>55890</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>358155</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>60631</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <v>850</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>727</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>323</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>100</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>26.9</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>95387</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>564024</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="8">
         <v>60632</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>24485</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>50393</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>19682</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>10801</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>32</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>26946</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>214528</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>60633</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>21323</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>55589</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>19683</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>13620</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>38.799999999999997</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="4">
         <v>65658</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="5">
         <v>227643</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="8">
         <v>60634</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>27919</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>91726</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <v>25529</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>19968</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>30.3</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="4">
         <v>42498</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <v>240787</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="8">
         <v>60636</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>12985</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>28433</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <v>10298</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>6774</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="4">
         <v>30369</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <v>87756</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="8">
         <v>60637</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>17616</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>45707</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <v>15961</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>10256</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>36.299999999999997</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <v>54230</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <v>277517</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="8">
         <v>60638</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>11238</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>14540</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <v>9040</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>2730</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>34.700000000000003</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="4">
         <v>107353</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="5">
         <v>512665</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="8">
         <v>60639</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>10623</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>25332</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <v>9869</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>6773</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>44.6</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="4">
         <v>90841</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <v>420222</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="8">
         <v>60640</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>26729</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>47554</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <v>22294</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>10695</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>39.5</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="4">
         <v>29641</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="5">
         <v>186222</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="8">
         <v>60641</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>18256</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>30857</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <v>16144</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>5060</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>33.799999999999997</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="4">
         <v>92149</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="5">
         <v>352837</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="8">
         <v>60642</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>1987</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>2253</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <v>1517</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>344</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>31.2</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="4">
         <v>91637</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="5">
         <v>345798</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="8">
         <v>60643</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>13395</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>25416</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <v>12116</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>4245</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>32.5</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="4">
         <v>88191</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="5">
         <v>373994</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="8">
         <v>60644</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>29537</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>75644</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <v>26357</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>16218</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>32</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="4">
         <v>37836</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="5">
         <v>251061</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="8">
         <v>60645</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>25428</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>67765</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <v>21074</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>14726</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>29.9</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="4">
         <v>36673</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="5">
         <v>196431</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="8">
         <v>60646</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>27078</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>71684</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <v>24746</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>16223</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>35.200000000000003</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="4">
         <v>54929</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="5">
         <v>296995</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="8">
         <v>60647</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>19718</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>49105</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <v>17857</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>12631</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>43</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="4">
         <v>60387</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="5">
         <v>192308</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="8">
         <v>60649</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>15915</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>34701</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <v>13535</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>7130</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>32.9</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="4">
         <v>35838</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="5">
         <v>273753</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="8">
         <v>60651</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>15068</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>39124</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <v>13595</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>9174</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>36.9</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="4">
         <v>53139</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="5">
         <v>325961</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="8">
         <v>60652</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>25671</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>45125</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <v>22983</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>9106</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>35.700000000000003</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="4">
         <v>40742</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="5">
         <v>240271</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="8">
         <v>60653</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>33716</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>82768</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <v>28533</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>19842</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>36.299999999999997</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="4">
         <v>40360</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="5">
         <v>148702</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="8">
         <v>60654</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>39926</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>94030</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <v>36204</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>20764</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>34.299999999999997</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="4">
         <v>62001</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="5">
         <v>368068</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="8">
         <v>60655</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>23658</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>64658</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <v>19974</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>14648</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>32.4</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="4">
         <v>32910</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="5">
         <v>197860</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="8">
         <v>60656</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>21491</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>57294</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <v>18559</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>13534</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>34.1</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="4">
         <v>45896</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="5">
         <v>127239</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="8">
         <v>60657</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>29351</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>42209</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <v>26008</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>6896</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>36.9</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="4">
         <v>78850</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="5">
         <v>443153</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="8">
         <v>60659</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>17425</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>35475</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <v>12019</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>7667</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="4">
         <v>19263</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="5">
         <v>129378</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="8">
         <v>60064</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>5788</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>13839</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <v>5427</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>3377</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>36.4</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="5">
         <v>47293</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="5">
         <v>174406</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="8">
         <v>60666</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>11296</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>36936</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <v>10699</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>8655</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>34.4</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="5">
         <v>78638</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="5">
         <v>269528</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="8">
         <v>60661</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>13516</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>37389</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <v>13071</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>9672</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>33</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="4">
         <v>103761</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="5">
         <v>277408</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="8">
         <v>60660</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>24</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>44</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <v>22</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>14</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>48.8</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="4">
         <v>60675</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="5">
         <v>79167</v>
       </c>
     </row>
